--- a/HrServiceCenterWeb/Files/单位结算.xlsx
+++ b/HrServiceCenterWeb/Files/单位结算.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\五通桥\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\hr\sagacity\HrServiceCenterWeb\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8116005F-748C-4593-8C86-B388C9D5422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94CD498-4748-452D-92A7-A3E325826EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A61BE1EE-1488-4E31-ABC4-856DD44FD83F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>用工单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,44 @@
   </si>
   <si>
     <t>操作日期</t>
+  </si>
+  <si>
+    <t>某某机关单位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某机关单位2</t>
+  </si>
+  <si>
+    <t>某某机关单位3</t>
+  </si>
+  <si>
+    <t>某某机关单位4</t>
+  </si>
+  <si>
+    <t>某某机关单位5</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -113,8 +151,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,19 +472,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD067F-0544-4AB6-B96D-99BDC428FC08}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -452,7 +501,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -466,10 +515,141 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>